--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bsg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bsg-Sele.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H2">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I2">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J2">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N2">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O2">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P2">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q2">
-        <v>695.4415952584101</v>
+        <v>388.884521838564</v>
       </c>
       <c r="R2">
-        <v>2781.76638103364</v>
+        <v>1555.538087354256</v>
       </c>
       <c r="S2">
-        <v>0.1109240282110664</v>
+        <v>0.1220044829168263</v>
       </c>
       <c r="T2">
-        <v>0.0728779268246126</v>
+        <v>0.08111965359497481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H3">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I3">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J3">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P3">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q3">
-        <v>5.098626219353333</v>
+        <v>5.82649288494</v>
       </c>
       <c r="R3">
-        <v>30.59175731612</v>
+        <v>34.95895730964</v>
       </c>
       <c r="S3">
-        <v>0.0008132389009361495</v>
+        <v>0.001827941745495254</v>
       </c>
       <c r="T3">
-        <v>0.0008014561777441868</v>
+        <v>0.001823072369653701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H4">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I4">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J4">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N4">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O4">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P4">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q4">
-        <v>2.520144239112501</v>
+        <v>4.4771507291115</v>
       </c>
       <c r="R4">
-        <v>15.120865434675</v>
+        <v>26.862904374669</v>
       </c>
       <c r="S4">
-        <v>0.0004019669697372633</v>
+        <v>0.001404613526564309</v>
       </c>
       <c r="T4">
-        <v>0.0003961430162455229</v>
+        <v>0.001400871836660992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H5">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I5">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J5">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N5">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O5">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P5">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q5">
-        <v>229.5266254277664</v>
+        <v>122.621782831155</v>
       </c>
       <c r="R5">
-        <v>1377.159752566598</v>
+        <v>735.7306969869301</v>
       </c>
       <c r="S5">
-        <v>0.03660985774755113</v>
+        <v>0.03847005053820291</v>
       </c>
       <c r="T5">
-        <v>0.036079430809735</v>
+        <v>0.03836757181579521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H6">
         <v>226.309475</v>
       </c>
       <c r="I6">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J6">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N6">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O6">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P6">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q6">
-        <v>1136.084125608833</v>
+        <v>555.9253026399334</v>
       </c>
       <c r="R6">
-        <v>6816.504753652999</v>
+        <v>3335.5518158396</v>
       </c>
       <c r="S6">
-        <v>0.1812072048298364</v>
+        <v>0.1744100762054019</v>
       </c>
       <c r="T6">
-        <v>0.178581759425735</v>
+        <v>0.1739454726622687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H7">
         <v>226.309475</v>
       </c>
       <c r="I7">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J7">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,22 +877,22 @@
         <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P7">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q7">
-        <v>8.329194499888887</v>
+        <v>8.329194499888889</v>
       </c>
       <c r="R7">
-        <v>74.96275049899998</v>
+        <v>74.96275049899999</v>
       </c>
       <c r="S7">
-        <v>0.001328519622611631</v>
+        <v>0.002613112662001157</v>
       </c>
       <c r="T7">
-        <v>0.001963906776171419</v>
+        <v>0.003909227554400947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H8">
         <v>226.309475</v>
       </c>
       <c r="I8">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J8">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N8">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O8">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P8">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q8">
-        <v>4.116946532708333</v>
+        <v>6.400258262475</v>
       </c>
       <c r="R8">
-        <v>37.052518794375</v>
+        <v>57.602324362275</v>
       </c>
       <c r="S8">
-        <v>0.000656659446963197</v>
+        <v>0.002007948776556251</v>
       </c>
       <c r="T8">
-        <v>0.000970718019951291</v>
+        <v>0.003003899831524329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H9">
         <v>226.309475</v>
       </c>
       <c r="I9">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J9">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N9">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O9">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P9">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q9">
-        <v>374.9582385220389</v>
+        <v>175.29253005075</v>
       </c>
       <c r="R9">
-        <v>3374.62414669835</v>
+        <v>1577.63277045675</v>
       </c>
       <c r="S9">
-        <v>0.05980642876607893</v>
+        <v>0.05499440910353861</v>
       </c>
       <c r="T9">
-        <v>0.08840987269832093</v>
+        <v>0.08227186777355111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H10">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I10">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J10">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N10">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O10">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P10">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q10">
-        <v>853.2779291848066</v>
+        <v>367.9647506615547</v>
       </c>
       <c r="R10">
-        <v>5119.66757510884</v>
+        <v>2207.788503969328</v>
       </c>
       <c r="S10">
-        <v>0.1360991717120492</v>
+        <v>0.115441336990826</v>
       </c>
       <c r="T10">
-        <v>0.1341272802234688</v>
+        <v>0.1151338177502128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H11">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I11">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J11">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P11">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q11">
-        <v>6.255802430857776</v>
+        <v>5.51306077059111</v>
       </c>
       <c r="R11">
-        <v>56.30222187771999</v>
+        <v>49.61754693531999</v>
       </c>
       <c r="S11">
-        <v>0.0009978103266392649</v>
+        <v>0.001729608896299116</v>
       </c>
       <c r="T11">
-        <v>0.001475030122602506</v>
+        <v>0.002587502197693809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H12">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I12">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J12">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N12">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O12">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P12">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q12">
-        <v>3.092112223741667</v>
+        <v>4.236305533383</v>
       </c>
       <c r="R12">
-        <v>27.829010013675</v>
+        <v>38.126749800447</v>
       </c>
       <c r="S12">
-        <v>0.0004931967628577879</v>
+        <v>0.001329053323167847</v>
       </c>
       <c r="T12">
-        <v>0.0007290765210212997</v>
+        <v>0.001988269372288394</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H13">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I13">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J13">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N13">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O13">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P13">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q13">
-        <v>281.6196284103598</v>
+        <v>116.02542968751</v>
       </c>
       <c r="R13">
-        <v>2534.576655693238</v>
+        <v>1044.22886718759</v>
       </c>
       <c r="S13">
-        <v>0.04491877365341271</v>
+        <v>0.03640058104473391</v>
       </c>
       <c r="T13">
-        <v>0.0664019427743416</v>
+        <v>0.05445542264040951</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H14">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I14">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J14">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N14">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O14">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P14">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q14">
-        <v>703.75132117614</v>
+        <v>399.375889094804</v>
       </c>
       <c r="R14">
-        <v>2815.00528470456</v>
+        <v>1597.503556379216</v>
       </c>
       <c r="S14">
-        <v>0.1122494425642041</v>
+        <v>0.1252959326025493</v>
       </c>
       <c r="T14">
-        <v>0.07374873409512088</v>
+        <v>0.08330810808408699</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H15">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I15">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J15">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P15">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q15">
-        <v>5.159548929079999</v>
+        <v>5.983680618673333</v>
       </c>
       <c r="R15">
-        <v>30.95729357447999</v>
+        <v>35.90208371204</v>
       </c>
       <c r="S15">
-        <v>0.0008229561689547588</v>
+        <v>0.001877256148867071</v>
       </c>
       <c r="T15">
-        <v>0.0008110326557942966</v>
+        <v>0.001872255406495369</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H16">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I16">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J16">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N16">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O16">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P16">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q16">
-        <v>2.550257059575</v>
+        <v>4.5979357692015</v>
       </c>
       <c r="R16">
-        <v>15.30154235745</v>
+        <v>27.587614615209</v>
       </c>
       <c r="S16">
-        <v>0.0004067700119614718</v>
+        <v>0.001442507337021455</v>
       </c>
       <c r="T16">
-        <v>0.0004008764689346735</v>
+        <v>0.001438664703417039</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H17">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I17">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J17">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N17">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O17">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P17">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q17">
-        <v>232.269204187982</v>
+        <v>125.929886098455</v>
       </c>
       <c r="R17">
-        <v>1393.615225127892</v>
+        <v>755.5793165907301</v>
       </c>
       <c r="S17">
-        <v>0.03704730337324194</v>
+        <v>0.03950789958052079</v>
       </c>
       <c r="T17">
-        <v>0.03651053844456836</v>
+        <v>0.0394026561764342</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H18">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I18">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J18">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N18">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O18">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P18">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q18">
-        <v>511.9400117062534</v>
+        <v>263.239674555888</v>
       </c>
       <c r="R18">
-        <v>3071.64007023752</v>
+        <v>1579.438047335328</v>
       </c>
       <c r="S18">
-        <v>0.08165523702932605</v>
+        <v>0.08258600837478715</v>
       </c>
       <c r="T18">
-        <v>0.08047216394467267</v>
+        <v>0.08236601103897405</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H19">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I19">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J19">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>0.33124</v>
       </c>
       <c r="O19">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P19">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q19">
-        <v>3.753285371795556</v>
+        <v>3.944009094479999</v>
       </c>
       <c r="R19">
-        <v>33.77956834616</v>
+        <v>35.49608185032</v>
       </c>
       <c r="S19">
-        <v>0.0005986549198434623</v>
+        <v>0.00123735135540068</v>
       </c>
       <c r="T19">
-        <v>0.0008849718390743171</v>
+        <v>0.001851082842062917</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H20">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I20">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J20">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N20">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O20">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P20">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q20">
-        <v>1.855170412683334</v>
+        <v>3.030626406258</v>
       </c>
       <c r="R20">
-        <v>16.69653371415</v>
+        <v>27.275637656322</v>
       </c>
       <c r="S20">
-        <v>0.000295902598573152</v>
+        <v>0.0009507964108766445</v>
       </c>
       <c r="T20">
-        <v>0.0004374230598733324</v>
+        <v>0.001422395437469606</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H21">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I21">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J21">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N21">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O21">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P21">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q21">
-        <v>168.9629497423516</v>
+        <v>83.00386462626</v>
       </c>
       <c r="R21">
-        <v>1520.666547681164</v>
+        <v>747.03478163634</v>
       </c>
       <c r="S21">
-        <v>0.02694985622319799</v>
+        <v>0.0260407473559182</v>
       </c>
       <c r="T21">
-        <v>0.03983908431065476</v>
+        <v>0.03895706778405406</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>51.445151</v>
+        <v>54.291675</v>
       </c>
       <c r="H22">
-        <v>154.335453</v>
+        <v>162.875025</v>
       </c>
       <c r="I22">
-        <v>0.1657170201609569</v>
+        <v>0.1684282851044455</v>
       </c>
       <c r="J22">
-        <v>0.1840806317913564</v>
+        <v>0.1893751091275716</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N22">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O22">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P22">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q22">
-        <v>774.7711763811401</v>
+        <v>400.0996757454</v>
       </c>
       <c r="R22">
-        <v>4648.62705828684</v>
+        <v>2400.5980544724</v>
       </c>
       <c r="S22">
-        <v>0.1235772211670616</v>
+        <v>0.125523005708032</v>
       </c>
       <c r="T22">
-        <v>0.1217867556738747</v>
+        <v>0.1251886303412786</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>51.445151</v>
+        <v>54.291675</v>
       </c>
       <c r="H23">
-        <v>154.335453</v>
+        <v>162.875025</v>
       </c>
       <c r="I23">
-        <v>0.1657170201609569</v>
+        <v>0.1684282851044455</v>
       </c>
       <c r="J23">
-        <v>0.1840806317913564</v>
+        <v>0.1893751091275716</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>0.33124</v>
       </c>
       <c r="O23">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P23">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q23">
-        <v>5.680230605746666</v>
+        <v>5.994524808999999</v>
       </c>
       <c r="R23">
-        <v>51.12207545171999</v>
+        <v>53.95072328099999</v>
       </c>
       <c r="S23">
-        <v>0.0009060057152938701</v>
+        <v>0.001880658289500495</v>
       </c>
       <c r="T23">
-        <v>0.001339318391111047</v>
+        <v>0.002813472726467785</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>51.445151</v>
+        <v>54.291675</v>
       </c>
       <c r="H24">
-        <v>154.335453</v>
+        <v>162.875025</v>
       </c>
       <c r="I24">
-        <v>0.1657170201609569</v>
+        <v>0.1684282851044455</v>
       </c>
       <c r="J24">
-        <v>0.1840806317913564</v>
+        <v>0.1893751091275716</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N24">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O24">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P24">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q24">
-        <v>2.807619115825001</v>
+        <v>4.606268582025</v>
       </c>
       <c r="R24">
-        <v>25.268572042425</v>
+        <v>41.456417238225</v>
       </c>
       <c r="S24">
-        <v>0.0004478196647038067</v>
+        <v>0.001445121584857721</v>
       </c>
       <c r="T24">
-        <v>0.0006619970522420486</v>
+        <v>0.002161907980905443</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>51.445151</v>
+        <v>54.291675</v>
       </c>
       <c r="H25">
-        <v>154.335453</v>
+        <v>162.875025</v>
       </c>
       <c r="I25">
-        <v>0.1657170201609569</v>
+        <v>0.1684282851044455</v>
       </c>
       <c r="J25">
-        <v>0.1840806317913564</v>
+        <v>0.1893751091275716</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N25">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O25">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P25">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q25">
-        <v>255.7089118711487</v>
+        <v>126.15810811425</v>
       </c>
       <c r="R25">
-        <v>2301.380206840338</v>
+        <v>1135.42297302825</v>
       </c>
       <c r="S25">
-        <v>0.04078597361389763</v>
+        <v>0.03957949952205526</v>
       </c>
       <c r="T25">
-        <v>0.06029256067412864</v>
+        <v>0.05921109807891974</v>
       </c>
     </row>
   </sheetData>
